--- a/Code Lists/ToopProcessIdentifiers-v2.xlsx
+++ b/Code Lists/ToopProcessIdentifiers-v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Profile ID</t>
   </si>
@@ -44,13 +44,20 @@
   </si>
   <si>
     <t>TOOP Request Response for Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:eu.toop.process.twophasedrequestresponse 
+</t>
+  </si>
+  <si>
+    <t>TOOP Two Phased Request Response for Documents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -129,6 +136,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,25 +543,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="4"/>
+    <col min="4" max="4" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,7 +593,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,6 +604,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Code Lists/ToopProcessIdentifiers-v2.xlsx
+++ b/Code Lists/ToopProcessIdentifiers-v2.xlsx
@@ -46,11 +46,10 @@
     <t>TOOP Request Response for Documents</t>
   </si>
   <si>
-    <t xml:space="preserve">urn:eu.toop.process.twophasedrequestresponse 
-</t>
-  </si>
-  <si>
     <t>TOOP Two Phased Request Response for Documents</t>
+  </si>
+  <si>
+    <t>urn:eu.toop.process.twophasedrequestresponse</t>
   </si>
 </sst>
 </file>
@@ -548,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,10 +608,10 @@
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
